--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2637.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2637.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8036840748176537</v>
+        <v>1.211459279060364</v>
       </c>
       <c r="B1">
-        <v>1.567679823679764</v>
+        <v>2.269507169723511</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.399822950363159</v>
       </c>
       <c r="D1">
-        <v>1.601637592136795</v>
+        <v>2.420431613922119</v>
       </c>
       <c r="E1">
-        <v>0.8744353824175608</v>
+        <v>1.313086748123169</v>
       </c>
     </row>
   </sheetData>
